--- a/public/report/monitoring/paud.xlsx
+++ b/public/report/monitoring/paud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\golang\src\github.com\bbliong\sim-bmm\public\report\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30F701-CBC2-4FBA-A032-B770DA2CB5B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EC9F6-7028-4872-9914-9B61D70C5D64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="3525" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -190,20 +190,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,22 +205,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,100 +629,84 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
